--- a/非受控文档/过程文档/需求优先级打分表/PRD2018-G18-变更后需求总优先级打分表排序.xlsx
+++ b/非受控文档/过程文档/需求优先级打分表/PRD2018-G18-变更后需求总优先级打分表排序.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRD2018\非受控文档\过程文档\需求优先级打分表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273FB877-C593-4AB2-AEAA-97747CB4D2CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="212">
   <si>
     <t>软件工程系列课程教学辅助网站需求总优先级打分表（作者：G18）客户：教师：学生：管理员：游客=1.5：1：1：1：0.5</t>
   </si>
@@ -655,14 +661,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +674,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -682,6 +683,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -689,359 +691,39 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1064,251 +746,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,12 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,62 +801,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1680,1330 +1076,1330 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="76.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="1" max="1" width="36.7265625" customWidth="1"/>
+    <col min="2" max="2" width="76.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
-        <v>4.752727273</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="C3" s="9">
+        <v>4.7527272729999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
-        <v>4.720582524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="C4" s="9">
+        <v>4.7205825240000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
-        <v>4.252727273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="9">
+        <v>4.2527272729999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
-        <v>4.160454545</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="C6" s="9">
+        <v>4.1604545450000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
-        <v>4.013737864</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="9">
+        <v>4.0137378640000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11">
-        <v>3.796427368</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="9">
+        <v>3.7964273679999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
-        <v>3.168520391</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="C9" s="9">
+        <v>3.1685203909999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>2.958446602</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11">
-        <v>2.863252427</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="C11" s="9">
+        <v>2.8632524269999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>2.824142395</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="11">
-        <v>2.733527508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="9">
+        <v>2.7335275079999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11">
-        <v>2.685454545</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="C14" s="9">
+        <v>2.6854545449999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="11">
-        <v>2.597605178</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="12" t="s">
+      <c r="C15" s="9">
+        <v>2.5976051779999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11">
-        <v>2.552297735</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="12" t="s">
+      <c r="C16" s="9">
+        <v>2.5522977349999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11">
-        <v>2.552297735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="9">
+        <v>2.5522977349999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11">
-        <v>2.552121212</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:3">
-      <c r="A19" s="12" t="s">
+      <c r="C18" s="9">
+        <v>2.5521212119999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="11">
-        <v>2.523446602</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="12" t="s">
+      <c r="C19" s="9">
+        <v>2.5234466019999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11">
-        <v>2.523446602</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:3">
-      <c r="A21" s="12" t="s">
+      <c r="C20" s="9">
+        <v>2.5234466019999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="11">
-        <v>2.523446602</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="12" t="s">
+      <c r="C21" s="9">
+        <v>2.5234466019999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11">
-        <v>2.455485437</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:3">
-      <c r="A23" s="12" t="s">
+      <c r="C22" s="9">
+        <v>2.4554854370000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11">
-        <v>2.387524272</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:3">
-      <c r="A24" s="12" t="s">
+      <c r="C23" s="9">
+        <v>2.3875242719999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="11">
-        <v>2.360291262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="C24" s="9">
+        <v>2.3602912620000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="11">
-        <v>2.35969697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="C25" s="9">
+        <v>2.3596969699999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="11">
-        <v>2.35969697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="C26" s="9">
+        <v>2.3596969699999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="11">
-        <v>2.35969697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="C27" s="9">
+        <v>2.3596969699999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11">
-        <v>2.328939394</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:3">
-      <c r="A29" s="12" t="s">
+      <c r="C28" s="9">
+        <v>2.3289393939999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>2.319563107</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>2.319563107</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <v>2.319563107</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <v>2.319563107</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="11">
-        <v>2.298527508</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:3">
-      <c r="A34" s="12" t="s">
+      <c r="C33" s="9">
+        <v>2.2985275079999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="11">
-        <v>2.298527508</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:3">
-      <c r="A35" s="12" t="s">
+      <c r="C34" s="9">
+        <v>2.2985275079999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="11">
-        <v>2.253220065</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:3">
-      <c r="A36" s="12" t="s">
+      <c r="C35" s="9">
+        <v>2.2532200649999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="11">
-        <v>2.253220065</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9" t="s">
+      <c r="C36" s="9">
+        <v>2.2532200649999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="11">
-        <v>2.237524272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="9" t="s">
+      <c r="C37" s="9">
+        <v>2.2375242719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="11">
-        <v>2.215150754</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:3">
-      <c r="A39" s="12" t="s">
+      <c r="C38" s="9">
+        <v>2.2151507540000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="11">
-        <v>2.162605178</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:3">
-      <c r="A40" s="12" t="s">
+      <c r="C39" s="9">
+        <v>2.1626051780000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="11">
-        <v>2.117297735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="9" t="s">
+      <c r="C40" s="9">
+        <v>2.1172977350000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="11">
-        <v>2.10459799</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="1:3">
-      <c r="A42" s="12" t="s">
+      <c r="C41" s="9">
+        <v>2.1045979899999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="11">
-        <v>2.088446602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="9" t="s">
+      <c r="C42" s="9">
+        <v>2.0884466019999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="11">
-        <v>2.080954774</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="9" t="s">
+      <c r="C43" s="9">
+        <v>2.0809547739999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="11">
-        <v>2.080954774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="9" t="s">
+      <c r="C44" s="9">
+        <v>2.0809547739999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="11">
-        <v>2.080954774</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="9" t="s">
+      <c r="C45" s="9">
+        <v>2.0809547739999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="11">
-        <v>2.080954774</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" spans="1:3">
-      <c r="A47" s="12" t="s">
+      <c r="C46" s="9">
+        <v>2.0809547739999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="11">
-        <v>2.071990291</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" spans="1:3">
-      <c r="A48" s="12" t="s">
+      <c r="C47" s="9">
+        <v>2.0719902910000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="11">
-        <v>2.071990291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="9" t="s">
+      <c r="C48" s="9">
+        <v>2.0719902910000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="11">
-        <v>2.05969697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="9" t="s">
+      <c r="C49" s="9">
+        <v>2.0596969700000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="11">
-        <v>2.05969697</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="9" t="s">
+      <c r="C50" s="9">
+        <v>2.0596969700000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="11">
-        <v>2.054346734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="9" t="s">
+      <c r="C51" s="9">
+        <v>2.0543467340000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="11">
-        <v>2.054346734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="9" t="s">
+      <c r="C52" s="9">
+        <v>2.0543467340000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="11">
-        <v>2.030703518</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:3">
-      <c r="A54" s="12" t="s">
+      <c r="C53" s="9">
+        <v>2.0307035180000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="11">
-        <v>2.026682848</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="9" t="s">
+      <c r="C54" s="9">
+        <v>2.0266828480000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="11">
-        <v>1.999070352</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" spans="1:3">
-      <c r="A56" s="12" t="s">
+      <c r="C55" s="9">
+        <v>1.9990703519999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="11">
-        <v>1.981375405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="9" t="s">
+      <c r="C56" s="9">
+        <v>1.9813754050000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="9">
         <v>1.975427136</v>
       </c>
     </row>
-    <row r="58" ht="28.5" spans="1:3">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="9">
         <v>1.952524272</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="9" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>1.920150754</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="9" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="9">
         <v>1.920150754</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="9">
         <v>1.920150754</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="9">
         <v>1.920150754</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="9">
         <v>1.920150754</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:3">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="9">
         <v>1.890760518</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="9">
         <v>1.888517588</v>
       </c>
     </row>
-    <row r="66" ht="28.5" spans="1:3">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="9">
         <v>1.884563107</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="11">
-        <v>1.864874372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="9" t="s">
+      <c r="C67" s="9">
+        <v>1.8648743720000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="11">
-        <v>1.864874372</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="9" t="s">
+      <c r="C68" s="9">
+        <v>1.8648743720000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="11">
-        <v>1.864874372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="9" t="s">
+      <c r="C69" s="9">
+        <v>1.8648743720000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="11">
-        <v>1.864874372</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" spans="1:3">
-      <c r="A71" s="12" t="s">
+      <c r="C70" s="9">
+        <v>1.8648743720000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="9">
         <v>1.863527508</v>
       </c>
     </row>
-    <row r="72" ht="28.5" spans="1:3">
-      <c r="A72" s="12" t="s">
+    <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="9">
         <v>1.863527508</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="9">
         <v>1.836231156</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="9">
         <v>1.817272727</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="9">
         <v>1.817272727</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="11">
-        <v>1.80959799</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="9" t="s">
+      <c r="C76" s="9">
+        <v>1.8095979900000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="11">
-        <v>1.80959799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="9" t="s">
+      <c r="C77" s="9">
+        <v>1.8095979900000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="11">
-        <v>1.791515152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="9" t="s">
+      <c r="C78" s="9">
+        <v>1.7915151520000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="9">
         <v>1.780954774</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="9" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="11">
-        <v>1.733939394</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" spans="1:3">
-      <c r="A81" s="12" t="s">
+      <c r="C80" s="9">
+        <v>1.7339393940000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="11">
-        <v>1.727605178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="9" t="s">
+      <c r="C81" s="9">
+        <v>1.7276051779999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="11">
-        <v>1.713301887</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="9" t="s">
+      <c r="C82" s="9">
+        <v>1.7133018870000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="9">
         <v>1.704070352</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:3">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="11">
-        <v>1.682297735</v>
-      </c>
-    </row>
-    <row r="85" ht="28.5" spans="1:3">
-      <c r="A85" s="13" t="s">
+      <c r="C84" s="9">
+        <v>1.6822977349999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="11">
-        <v>1.669994944</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" spans="1:3">
-      <c r="A86" s="12" t="s">
+      <c r="C85" s="9">
+        <v>1.6699949439999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="9">
         <v>1.636990291</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="9" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="9">
         <v>1.634056604</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="9" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="9">
         <v>1.634056604</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="9" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="9">
         <v>1.634056604</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="11">
-        <v>1.491515152</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="9" t="s">
+      <c r="C90" s="9">
+        <v>1.4915151520000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="9">
         <v>1.48798995</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="9">
         <v>1.48798995</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="11">
-        <v>1.459346734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="9" t="s">
+      <c r="C93" s="9">
+        <v>1.4593467339999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C94" s="11">
-        <v>1.459346734</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="9" t="s">
+      <c r="C94" s="9">
+        <v>1.4593467339999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="9">
         <v>1.404070352</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="9" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="9">
         <v>1.404070352</v>
       </c>
     </row>
-    <row r="97" ht="28.5" spans="1:3">
-      <c r="A97" s="13" t="s">
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C97" s="11">
-        <v>1.348795079</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="9" t="s">
+      <c r="C97" s="9">
+        <v>1.3487950790000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="9">
         <v>1.34879397</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="9" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="9">
         <v>1.18798995</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="9">
         <v>1.18798995</v>
       </c>
     </row>
-    <row r="101" ht="14.25" spans="1:3">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="9">
         <v>1.14231547</v>
       </c>
     </row>
-    <row r="102" ht="28.5" spans="1:3">
-      <c r="A102" s="13" t="s">
+    <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="9">
         <v>1.135069093</v>
       </c>
     </row>
-    <row r="103" ht="14.25" spans="1:3">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="9">
         <v>1.113329963</v>
       </c>
     </row>
-    <row r="104" ht="14.25" spans="1:3">
-      <c r="A104" s="13" t="s">
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="9">
         <v>1.113329963</v>
       </c>
     </row>
-    <row r="105" ht="14.25" spans="1:3">
-      <c r="A105" s="13" t="s">
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="9">
         <v>1.037664307</v>
       </c>
     </row>
-    <row r="106" ht="28.5" spans="1:3">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="9">
         <v>1.015925177</v>
       </c>
     </row>
-    <row r="107" ht="14.25" spans="1:3">
-      <c r="A107" s="13" t="s">
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="9">
         <v>1.015925177</v>
       </c>
     </row>
-    <row r="108" ht="14.25" spans="1:3">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C108" s="11">
-        <v>0.978092349</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" spans="1:3">
-      <c r="A109" s="13" t="s">
+      <c r="C108" s="9">
+        <v>0.97809234899999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="11">
-        <v>0.933013145</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" spans="1:3">
-      <c r="A110" s="13" t="s">
+      <c r="C109" s="9">
+        <v>0.93301314499999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C110" s="11">
-        <v>0.851702056</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" spans="1:3">
-      <c r="A111" s="13" t="s">
+      <c r="C110" s="9">
+        <v>0.85170205600000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C111" s="11">
-        <v>0.799376475</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" spans="1:3">
-      <c r="A112" s="13" t="s">
+      <c r="C111" s="9">
+        <v>0.79937647499999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="11">
-        <v>0.799376475</v>
-      </c>
-    </row>
-    <row r="113" ht="28.5" spans="1:3">
-      <c r="A113" s="13" t="s">
+      <c r="C112" s="9">
+        <v>0.79937647499999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C113" s="11">
-        <v>0.768790024</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" spans="1:3">
-      <c r="A114" s="12" t="s">
+      <c r="C113" s="9">
+        <v>0.76879002399999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="14">
         <v>0.75</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:3">
-      <c r="A115" s="13" t="s">
+    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C115" s="11">
-        <v>0.649646107</v>
-      </c>
-    </row>
-    <row r="116" ht="28.5" spans="1:3">
-      <c r="A116" s="13" t="s">
+      <c r="C115" s="9">
+        <v>0.64964610700000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C116" s="11">
-        <v>0.603155544</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" spans="1:3">
-      <c r="A117" s="17" t="s">
+      <c r="C116" s="9">
+        <v>0.60315554400000004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C117" s="11">
-        <v>0.524667172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C117" s="9">
+        <v>0.52466717200000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>210</v>
       </c>
@@ -3013,12 +2409,12 @@
     </row>
   </sheetData>
   <sortState ref="A3:C117">
-    <sortCondition ref="C3:C117" descending="1"/>
+    <sortCondition descending="1" ref="C3:C117"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>